--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1621.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1621.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.148406476732936</v>
+        <v>0.8309265375137329</v>
       </c>
       <c r="B1">
-        <v>2.738081794417984</v>
+        <v>2.858924150466919</v>
       </c>
       <c r="C1">
-        <v>4.368704067790623</v>
+        <v>4.694247722625732</v>
       </c>
       <c r="D1">
-        <v>2.226168214847663</v>
+        <v>2.810256242752075</v>
       </c>
       <c r="E1">
-        <v>1.068946481513745</v>
+        <v>1.447497725486755</v>
       </c>
     </row>
   </sheetData>
